--- a/Plano de Acao 5W2H/5W2H.xlsx
+++ b/Plano de Acao 5W2H/5W2H.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ADA-SEXTAETAPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ADA-SEXTAETAPA\Plano de Acao 5W2H\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50CBDA0-230E-4B45-BBAD-736285123846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9053D6D-8701-4E59-9266-D28152095081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACE7A2A2-37B6-4844-BF84-DF9494DE894A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>PLANO DE AÇÃO</t>
   </si>
@@ -106,9 +106,6 @@
     <t>3 H</t>
   </si>
   <si>
-    <t>Levantamento de informaçoes sobre Solução</t>
-  </si>
-  <si>
     <t>Mapa mental</t>
   </si>
   <si>
@@ -253,8 +250,18 @@
     <t>1. Pesquisa e desenvolivmento do Moodboard</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Organização das ideias 
-2. Idealização do cenário                                                     </t>
+    <t>1. Desenvolvimento de ideias                            
+2. Organização do documento
+3. Pesquisas</t>
+  </si>
+  <si>
+    <t>1. Pesquisas
+2. Organização de Ideas
+3. Montagem da jornada</t>
+  </si>
+  <si>
+    <t>Levantamento de informaçoes
+ sobre Solução</t>
   </si>
 </sst>
 </file>
@@ -301,12 +308,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,65 +318,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5F1F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,186 +373,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="hair">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,177 +391,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,6 +462,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF005594"/>
+      <color rgb="FF429EBD"/>
+      <color rgb="FFC5F1F9"/>
+      <color rgb="FFB5D8E5"/>
       <color rgb="FFFCE9D4"/>
       <color rgb="FFFF9933"/>
       <color rgb="FF6600FF"/>
@@ -1120,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54D6EF0-7884-4E25-B7F7-9DEE10B1E006}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,498 +820,496 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="44" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="51" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="49" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="42"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="16">
         <v>45980</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="16">
         <v>45980</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="16">
         <v>45980</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="18">
         <v>1</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="20">
+        <v>45980</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="20">
+        <v>45980</v>
+      </c>
+      <c r="H6" s="20">
+        <v>45981</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6">
-        <v>45980</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16">
+        <v>45955</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="25">
-        <v>45980</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="G7" s="16">
+        <v>45925</v>
+      </c>
+      <c r="H7" s="16">
+        <v>45987</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="20">
         <v>45981</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="28">
+      <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="20">
+        <v>45981</v>
+      </c>
+      <c r="H8" s="20">
+        <v>45982</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="22">
         <v>1</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="16">
+        <v>45981</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="16">
+        <v>45981</v>
+      </c>
+      <c r="H9" s="16">
+        <v>45982</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="11">
-        <v>45955</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="20">
+        <v>45987</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="20">
+        <v>45926</v>
+      </c>
+      <c r="H10" s="20">
+        <v>45956</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="22">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="16">
+        <v>45986</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="16">
+        <v>45986</v>
+      </c>
+      <c r="H11" s="16">
+        <v>45986</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="20">
+        <v>45986</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="20">
+        <v>45986</v>
+      </c>
+      <c r="H12" s="20">
+        <v>45987</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="16">
+        <v>45986</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="16">
+        <v>45986</v>
+      </c>
+      <c r="H13" s="16">
+        <v>45990</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="20">
+        <v>45985</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="20">
+        <v>45985</v>
+      </c>
+      <c r="H14" s="20">
+        <v>45985</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="16">
+        <v>45986</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="16">
+        <v>45986</v>
+      </c>
+      <c r="H15" s="16">
+        <v>45987</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="20">
+        <v>45986</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="21">
-        <v>45925</v>
-      </c>
-      <c r="H7" s="22">
-        <v>45987</v>
-      </c>
-      <c r="I7" s="23" t="s">
+      <c r="G16" s="20">
+        <v>45986</v>
+      </c>
+      <c r="H16" s="20">
+        <v>45986</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J16" s="22">
         <v>1</v>
       </c>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45981</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="25">
-        <v>45981</v>
-      </c>
-      <c r="H8" s="26">
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="16">
         <v>45982</v>
       </c>
-      <c r="I8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="11">
-        <v>45981</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="21">
-        <v>45981</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="F17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="16">
         <v>45982</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="6">
-        <v>45986</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="25">
-        <v>45986</v>
-      </c>
-      <c r="H10" s="26">
-        <v>45987</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="28">
-        <v>1</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="11">
-        <v>45986</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="21">
-        <v>45986</v>
-      </c>
-      <c r="H11" s="22">
-        <v>45986</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="6">
-        <v>45986</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="25">
-        <v>45986</v>
-      </c>
-      <c r="H12" s="26">
-        <v>45988</v>
-      </c>
-      <c r="I12" s="30" t="s">
+      <c r="H17" s="16">
+        <v>45984</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="11">
-        <v>45986</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="21">
-        <v>45986</v>
-      </c>
-      <c r="H13" s="22">
-        <v>45990</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="57">
-        <v>45985</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="57">
-        <v>45985</v>
-      </c>
-      <c r="H14" s="57">
-        <v>45985</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="22">
-        <v>45986</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="22">
-        <v>45986</v>
-      </c>
-      <c r="H15" s="22">
-        <v>45987</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="26">
-        <v>45986</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="26">
-        <v>45986</v>
-      </c>
-      <c r="H16" s="26">
-        <v>45987</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="59">
-        <v>45982</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="59">
-        <v>45982</v>
-      </c>
-      <c r="H17" s="59">
-        <v>45984</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="32">
+      <c r="J17" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1640,7 +1319,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1652,7 +1331,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1664,7 +1343,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1676,7 +1355,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1688,7 +1367,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1700,7 +1379,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1712,7 +1391,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1724,7 +1403,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1736,7 +1415,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1748,7 +1427,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
